--- a/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/实收资本.xlsx
+++ b/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/实收资本.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,381 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>31.67299</v>
-      </c>
-      <c r="C2" t="n">
-        <v>45.18702</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.35045</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.01342</v>
-      </c>
-      <c r="F2" t="n">
-        <v>16.15156</v>
-      </c>
-      <c r="G2" t="n">
-        <v>54.84397</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.4835</v>
-      </c>
-      <c r="I2" t="n">
-        <v>32.10205</v>
-      </c>
-      <c r="J2" t="n">
-        <v>7.48702</v>
-      </c>
-      <c r="K2" t="n">
-        <v>42.0782</v>
-      </c>
-      <c r="L2" t="n">
-        <v>20.65325</v>
-      </c>
-      <c r="M2" t="n">
-        <v>9.384779999999999</v>
-      </c>
-      <c r="N2" t="n">
-        <v>49.74078</v>
-      </c>
-      <c r="O2" t="n">
-        <v>29.64068</v>
-      </c>
-      <c r="P2" t="n">
-        <v>6.23977</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>53.77018</v>
-      </c>
-      <c r="R2" t="n">
-        <v>20.9299</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="n">
-        <v>9.424390000000001</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.1273</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.17711</v>
-      </c>
-      <c r="W2" t="n">
-        <v>6.79903</v>
-      </c>
-      <c r="X2" t="n">
-        <v>11.31642</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>23.26413</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>62.55757</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>20.91974</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>11.20751</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>992.26992</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>79.8451</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.21925</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>25.99898</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>60.25906</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>103.40898</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>5.2347</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>22.26969</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>54.76993</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>25.01509</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>36.14008</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>4.08634</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>46.16811</v>
-      </c>
-      <c r="C3" t="n">
-        <v>61.1576</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.38605</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.06943000000000001</v>
-      </c>
-      <c r="F3" t="n">
-        <v>27.28248</v>
-      </c>
-      <c r="G3" t="n">
-        <v>98.44020999999999</v>
-      </c>
-      <c r="H3" t="n">
-        <v>12.96041</v>
-      </c>
-      <c r="I3" t="n">
-        <v>41.65688</v>
-      </c>
-      <c r="J3" t="n">
-        <v>15.30923</v>
-      </c>
-      <c r="K3" t="n">
-        <v>59.41148</v>
-      </c>
-      <c r="L3" t="n">
-        <v>24.4828</v>
-      </c>
-      <c r="M3" t="n">
-        <v>18.66743</v>
-      </c>
-      <c r="N3" t="n">
-        <v>87.49814000000001</v>
-      </c>
-      <c r="O3" t="n">
-        <v>46.76534</v>
-      </c>
-      <c r="P3" t="n">
-        <v>8.42351</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>66.90957</v>
-      </c>
-      <c r="R3" t="n">
-        <v>38.92363</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.01383</v>
-      </c>
-      <c r="T3" t="n">
-        <v>14.81786</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.146</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.78997</v>
-      </c>
-      <c r="W3" t="n">
-        <v>12.24519</v>
-      </c>
-      <c r="X3" t="n">
-        <v>16.61084</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>40.94596</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>93.09971</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>38.27764</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>19.20073</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1572.91202</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>149.0941</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.82304</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>49.81683</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>91.47579</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>152.65036</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>9.17245</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>40.8766</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>82.63811</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>34.92604</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>50.33169</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>6.43198</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>71.51322</v>
-      </c>
-      <c r="C4" t="n">
-        <v>86.1931</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18.11621</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.2349</v>
-      </c>
-      <c r="F4" t="n">
-        <v>36.12733</v>
-      </c>
-      <c r="G4" t="n">
-        <v>142.45983</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14.61472</v>
-      </c>
-      <c r="I4" t="n">
-        <v>59.19669</v>
-      </c>
-      <c r="J4" t="n">
-        <v>24.20346</v>
-      </c>
-      <c r="K4" t="n">
-        <v>92.76772</v>
-      </c>
-      <c r="L4" t="n">
-        <v>27.17157</v>
-      </c>
-      <c r="M4" t="n">
-        <v>23.98194</v>
-      </c>
-      <c r="N4" t="n">
-        <v>128.83849</v>
-      </c>
-      <c r="O4" t="n">
-        <v>63.09694</v>
-      </c>
-      <c r="P4" t="n">
-        <v>10.66471</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>91.83014</v>
-      </c>
-      <c r="R4" t="n">
-        <v>49.13317</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>19.1493</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.066</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.50625</v>
-      </c>
-      <c r="W4" t="n">
-        <v>21.87437</v>
-      </c>
-      <c r="X4" t="n">
-        <v>13.43187</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>55.91111</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>133.83775</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>52.65559</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>43.01288</v>
-      </c>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="n">
-        <v>2257.99738</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>228.47369</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1.46356</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>64.09932999999999</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>131.71359</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>215.35016</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>14.43081</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>53.02772</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>117.91544</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>41.63501</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>95.45876</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>12.84005</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
